--- a/1_Result_Tables/2_ifo_qoq_evaluations_20221_21001/ifo_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations_20221_21001/ifo_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08102716014508599</v>
+        <v>-0.1052853234940633</v>
       </c>
       <c r="C2">
-        <v>0.1849562581409688</v>
+        <v>0.4900476106607171</v>
       </c>
       <c r="D2">
-        <v>0.05080724786734196</v>
+        <v>0.6183260505831405</v>
       </c>
       <c r="E2">
-        <v>0.225404631423895</v>
+        <v>0.7863371100127098</v>
       </c>
       <c r="F2">
-        <v>0.2177199557413915</v>
+        <v>0.7868594147108519</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3284388860093228</v>
+        <v>0.3646584415625562</v>
       </c>
       <c r="C3">
-        <v>0.3436510707338022</v>
+        <v>0.722637768445621</v>
       </c>
       <c r="D3">
-        <v>0.1900396029840986</v>
+        <v>1.426035144228675</v>
       </c>
       <c r="E3">
-        <v>0.4359353197254136</v>
+        <v>1.194167134126825</v>
       </c>
       <c r="F3">
-        <v>0.2974694575110258</v>
+        <v>1.148442664015213</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5008085514463395</v>
+        <v>0.4532797608695453</v>
       </c>
       <c r="C4">
-        <v>0.5008085514463395</v>
+        <v>0.9902620268281389</v>
       </c>
       <c r="D4">
-        <v>0.4390583335671841</v>
+        <v>3.506287014911406</v>
       </c>
       <c r="E4">
-        <v>0.6626147701094386</v>
+        <v>1.872508214911595</v>
       </c>
       <c r="F4">
-        <v>0.4515933521755904</v>
+        <v>1.835262443918751</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6271289531314115</v>
+        <v>0.4187269926694491</v>
       </c>
       <c r="C5">
-        <v>0.6271289531314115</v>
+        <v>1.116030423578108</v>
       </c>
       <c r="D5">
-        <v>0.6001355647093024</v>
+        <v>4.462820609660299</v>
       </c>
       <c r="E5">
-        <v>0.77468417094278</v>
+        <v>2.112538901336564</v>
       </c>
       <c r="F5">
-        <v>0.4750251754326699</v>
+        <v>2.092082930599334</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6196096897755812</v>
+        <v>0.2603619109577968</v>
       </c>
       <c r="C6">
-        <v>0.6196096897755812</v>
+        <v>0.935772708153241</v>
       </c>
       <c r="D6">
-        <v>0.4847206317237406</v>
+        <v>3.863674849690833</v>
       </c>
       <c r="E6">
-        <v>0.6962188102340676</v>
+        <v>1.965623272575606</v>
       </c>
       <c r="F6">
-        <v>0.3329938595018584</v>
+        <v>1.96892104161102</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4878350037768636</v>
+        <v>0.2925042579902095</v>
       </c>
       <c r="C7">
-        <v>0.4878350037768636</v>
+        <v>0.9789877322222572</v>
       </c>
       <c r="D7">
-        <v>0.2918424992789185</v>
+        <v>4.769865589305868</v>
       </c>
       <c r="E7">
-        <v>0.5402244897067501</v>
+        <v>2.184002195352804</v>
       </c>
       <c r="F7">
-        <v>0.2446301252661204</v>
+        <v>2.19502714946493</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.408887426949955</v>
+        <v>0.2341597008279832</v>
       </c>
       <c r="C8">
-        <v>0.408887426949955</v>
+        <v>0.9857524095050276</v>
       </c>
       <c r="D8">
-        <v>0.2151763681766355</v>
+        <v>4.861337304003894</v>
       </c>
       <c r="E8">
-        <v>0.4638710684841592</v>
+        <v>2.204844054350306</v>
       </c>
       <c r="F8">
-        <v>0.2323485964907919</v>
+        <v>2.224381796787603</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.399669795446622</v>
+        <v>0.1803491558900733</v>
       </c>
       <c r="C9">
-        <v>0.399669795446622</v>
+        <v>1.423780144984279</v>
       </c>
       <c r="D9">
-        <v>0.2150887163119547</v>
+        <v>8.982173702935924</v>
       </c>
       <c r="E9">
-        <v>0.4637765801676004</v>
+        <v>2.997027477841324</v>
       </c>
       <c r="F9">
-        <v>0.2577272300389153</v>
+        <v>3.078327104205846</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2327354214815493</v>
+        <v>-0.6058116565806465</v>
       </c>
       <c r="C10">
-        <v>0.2327354214815493</v>
+        <v>1.074425645603604</v>
       </c>
       <c r="D10">
-        <v>0.07574075157082642</v>
+        <v>6.535069776881333</v>
       </c>
       <c r="E10">
-        <v>0.2752103769315874</v>
+        <v>2.556378253874284</v>
       </c>
       <c r="F10">
-        <v>0.1798956996093793</v>
+        <v>2.60477795886628</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2378331735378737</v>
+        <v>0.1218082912510491</v>
       </c>
       <c r="C11">
-        <v>0.2378331735378737</v>
+        <v>0.4641168854429287</v>
       </c>
       <c r="D11">
-        <v>0.05656461843509633</v>
+        <v>0.2644604851195395</v>
       </c>
       <c r="E11">
-        <v>0.2378331735378737</v>
+        <v>0.5142572168861994</v>
+      </c>
+      <c r="F11">
+        <v>0.5585955886216332</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/2_ifo_qoq_evaluations_20221_21001/ifo_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations_20221_21001/ifo_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1052853234940633</v>
+        <v>0.08102716014508599</v>
       </c>
       <c r="C2">
-        <v>0.4900476106607171</v>
+        <v>0.1849562581409688</v>
       </c>
       <c r="D2">
-        <v>0.6183260505831405</v>
+        <v>0.05080724786734196</v>
       </c>
       <c r="E2">
-        <v>0.7863371100127098</v>
+        <v>0.225404631423895</v>
       </c>
       <c r="F2">
-        <v>0.7868594147108519</v>
+        <v>0.2177199557413915</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3646584415625562</v>
+        <v>0.3284388860093228</v>
       </c>
       <c r="C3">
-        <v>0.722637768445621</v>
+        <v>0.3436510707338022</v>
       </c>
       <c r="D3">
-        <v>1.426035144228675</v>
+        <v>0.1900396029840986</v>
       </c>
       <c r="E3">
-        <v>1.194167134126825</v>
+        <v>0.4359353197254136</v>
       </c>
       <c r="F3">
-        <v>1.148442664015213</v>
+        <v>0.2974694575110258</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4532797608695453</v>
+        <v>0.5008085514463395</v>
       </c>
       <c r="C4">
-        <v>0.9902620268281389</v>
+        <v>0.5008085514463395</v>
       </c>
       <c r="D4">
-        <v>3.506287014911406</v>
+        <v>0.4390583335671841</v>
       </c>
       <c r="E4">
-        <v>1.872508214911595</v>
+        <v>0.6626147701094386</v>
       </c>
       <c r="F4">
-        <v>1.835262443918751</v>
+        <v>0.4515933521755904</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4187269926694491</v>
+        <v>0.6271289531314115</v>
       </c>
       <c r="C5">
-        <v>1.116030423578108</v>
+        <v>0.6271289531314115</v>
       </c>
       <c r="D5">
-        <v>4.462820609660299</v>
+        <v>0.6001355647093024</v>
       </c>
       <c r="E5">
-        <v>2.112538901336564</v>
+        <v>0.77468417094278</v>
       </c>
       <c r="F5">
-        <v>2.092082930599334</v>
+        <v>0.4750251754326699</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2603619109577968</v>
+        <v>0.6196096897755812</v>
       </c>
       <c r="C6">
-        <v>0.935772708153241</v>
+        <v>0.6196096897755812</v>
       </c>
       <c r="D6">
-        <v>3.863674849690833</v>
+        <v>0.4847206317237406</v>
       </c>
       <c r="E6">
-        <v>1.965623272575606</v>
+        <v>0.6962188102340676</v>
       </c>
       <c r="F6">
-        <v>1.96892104161102</v>
+        <v>0.3329938595018584</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2925042579902095</v>
+        <v>0.4878350037768636</v>
       </c>
       <c r="C7">
-        <v>0.9789877322222572</v>
+        <v>0.4878350037768636</v>
       </c>
       <c r="D7">
-        <v>4.769865589305868</v>
+        <v>0.2918424992789185</v>
       </c>
       <c r="E7">
-        <v>2.184002195352804</v>
+        <v>0.5402244897067501</v>
       </c>
       <c r="F7">
-        <v>2.19502714946493</v>
+        <v>0.2446301252661204</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2341597008279832</v>
+        <v>0.408887426949955</v>
       </c>
       <c r="C8">
-        <v>0.9857524095050276</v>
+        <v>0.408887426949955</v>
       </c>
       <c r="D8">
-        <v>4.861337304003894</v>
+        <v>0.2151763681766355</v>
       </c>
       <c r="E8">
-        <v>2.204844054350306</v>
+        <v>0.4638710684841592</v>
       </c>
       <c r="F8">
-        <v>2.224381796787603</v>
+        <v>0.2323485964907919</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1803491558900733</v>
+        <v>0.399669795446622</v>
       </c>
       <c r="C9">
-        <v>1.423780144984279</v>
+        <v>0.399669795446622</v>
       </c>
       <c r="D9">
-        <v>8.982173702935924</v>
+        <v>0.2150887163119547</v>
       </c>
       <c r="E9">
-        <v>2.997027477841324</v>
+        <v>0.4637765801676004</v>
       </c>
       <c r="F9">
-        <v>3.078327104205846</v>
+        <v>0.2577272300389153</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.6058116565806465</v>
+        <v>0.2327354214815493</v>
       </c>
       <c r="C10">
-        <v>1.074425645603604</v>
+        <v>0.2327354214815493</v>
       </c>
       <c r="D10">
-        <v>6.535069776881333</v>
+        <v>0.07574075157082642</v>
       </c>
       <c r="E10">
-        <v>2.556378253874284</v>
+        <v>0.2752103769315874</v>
       </c>
       <c r="F10">
-        <v>2.60477795886628</v>
+        <v>0.1798956996093793</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1218082912510491</v>
+        <v>0.2378331735378737</v>
       </c>
       <c r="C11">
-        <v>0.4641168854429287</v>
+        <v>0.2378331735378737</v>
       </c>
       <c r="D11">
-        <v>0.2644604851195395</v>
+        <v>0.05656461843509633</v>
       </c>
       <c r="E11">
-        <v>0.5142572168861994</v>
-      </c>
-      <c r="F11">
-        <v>0.5585955886216332</v>
+        <v>0.2378331735378737</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
